--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_st.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_st.xlsx
@@ -64,12 +64,12 @@
     <t>p1172_02_t</t>
   </si>
   <si>
+    <t>p4022_t</t>
+  </si>
+  <si>
     <t>p599_t_1.0</t>
   </si>
   <si>
-    <t>p4022_t</t>
-  </si>
-  <si>
     <t>p316a5_t</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>p558a2_t</t>
   </si>
   <si>
+    <t>p414_02_t</t>
+  </si>
+  <si>
     <t>p401_t</t>
   </si>
   <si>
-    <t>p414_02_t</t>
-  </si>
-  <si>
     <t>p1172_01_t</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>p559_04_t</t>
   </si>
   <si>
+    <t>p558c_t_6.0</t>
+  </si>
+  <si>
     <t>p111a_t</t>
   </si>
   <si>
-    <t>p558c_t_6.0</t>
-  </si>
-  <si>
     <t>p1132_t</t>
   </si>
   <si>
@@ -127,18 +127,18 @@
     <t>p1144_t</t>
   </si>
   <si>
+    <t>p110a_t</t>
+  </si>
+  <si>
+    <t>p559_02_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
     <t>p112a_t</t>
   </si>
   <si>
-    <t>p559_02_t</t>
-  </si>
-  <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p110a_t</t>
-  </si>
-  <si>
     <t>p1171_14_t</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>p401f_t</t>
   </si>
   <si>
-    <t>p414_12_t</t>
-  </si>
-  <si>
     <t>p1175_15_t</t>
+  </si>
+  <si>
+    <t>p1175_01_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.13136359899534</v>
+        <v>0.1327293750940619</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.06725627675261768</v>
+        <v>0.0671941467536946</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06197441410014969</v>
+        <v>0.06204668159022025</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04978546002483888</v>
+        <v>0.04833441057318463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03099640152507109</v>
+        <v>0.03072016523676893</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02969006481840066</v>
+        <v>0.02966782852720165</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02695318487319301</v>
+        <v>0.02769363181622485</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02656442763524053</v>
+        <v>0.02671277954542101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02409979987500696</v>
+        <v>0.02394422123026428</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02332927915362329</v>
+        <v>0.02286952879873781</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02272594430870624</v>
+        <v>0.02278398059579327</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02231150887041387</v>
+        <v>0.02273296809148602</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02188031153996225</v>
+        <v>0.02177770866676102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02026833400873756</v>
+        <v>0.02013804723478443</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01892398866162009</v>
+        <v>0.01858367673532974</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01851537735491125</v>
+        <v>0.01851979353363541</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01632515896073423</v>
+        <v>0.01715593596705803</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.0158579028870102</v>
+        <v>0.01598496898651466</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01499858895344417</v>
+        <v>0.01567894972248185</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01421847389076058</v>
+        <v>0.01418467697938079</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01384349663188639</v>
+        <v>0.01357383588096104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01357592497488718</v>
+        <v>0.01340252413830363</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01272028812392537</v>
+        <v>0.01271196418495706</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01174824497012216</v>
+        <v>0.01169374894161835</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01100442564814214</v>
+        <v>0.01094813516978203</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.0104003015581757</v>
+        <v>0.01083400209315015</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.009141991036124428</v>
+        <v>0.008962530289722586</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.008922472144942762</v>
+        <v>0.00894652518205746</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.008528116105884347</v>
+        <v>0.00864477832073408</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.00837259907969962</v>
+        <v>0.008496340881863892</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.007987105367464456</v>
+        <v>0.008013658830805369</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.007472359024998726</v>
+        <v>0.007492764038519974</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006854774350736063</v>
+        <v>0.006857984165208872</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006437707492765951</v>
+        <v>0.006589160208076364</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006263355651770987</v>
+        <v>0.006483718952919712</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.006249757791590707</v>
+        <v>0.006157126771959243</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.006237640144517155</v>
+        <v>0.006086931473293346</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.006219143661303561</v>
+        <v>0.006022916171163987</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.006182894973497043</v>
+        <v>0.005860566024008968</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.006078579105252068</v>
+        <v>0.005849147558356661</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.005733875376118466</v>
+        <v>0.005691529599948444</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.005579035954134144</v>
+        <v>0.005499559545538763</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.005116700876499228</v>
+        <v>0.005163652559175823</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004761313575410573</v>
+        <v>0.004700887237204391</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.00465794154880688</v>
+        <v>0.004667854086553503</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004337384475885706</v>
+        <v>0.004450456554601577</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004316777795282041</v>
+        <v>0.004338394984105308</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.004032494610804498</v>
+        <v>0.004111079383021392</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.003957571716558255</v>
+        <v>0.00405434677008365</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003950205063584477</v>
+        <v>0.003880574610301893</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/results/base_17_19/base_17_19_rf_st.xlsx
+++ b/output/ejecucion_2/results/base_17_19/base_17_19_rf_st.xlsx
@@ -64,12 +64,12 @@
     <t>p1172_02_t</t>
   </si>
   <si>
+    <t>p599_t_1.0</t>
+  </si>
+  <si>
     <t>p4022_t</t>
   </si>
   <si>
-    <t>p599_t_1.0</t>
-  </si>
-  <si>
     <t>p316a5_t</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>p558a2_t</t>
   </si>
   <si>
+    <t>p401_t</t>
+  </si>
+  <si>
     <t>p414_02_t</t>
   </si>
   <si>
-    <t>p401_t</t>
-  </si>
-  <si>
     <t>p1172_01_t</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>p559_04_t</t>
   </si>
   <si>
+    <t>p111a_t</t>
+  </si>
+  <si>
     <t>p558c_t_6.0</t>
   </si>
   <si>
-    <t>p111a_t</t>
-  </si>
-  <si>
     <t>p1132_t</t>
   </si>
   <si>
@@ -127,18 +127,18 @@
     <t>p1144_t</t>
   </si>
   <si>
+    <t>p112a_t</t>
+  </si>
+  <si>
+    <t>p559_02_t</t>
+  </si>
+  <si>
+    <t>ocu500_t_4.0</t>
+  </si>
+  <si>
     <t>p110a_t</t>
   </si>
   <si>
-    <t>p559_02_t</t>
-  </si>
-  <si>
-    <t>ocu500_t_4.0</t>
-  </si>
-  <si>
-    <t>p112a_t</t>
-  </si>
-  <si>
     <t>p1171_14_t</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>p401f_t</t>
   </si>
   <si>
+    <t>p414_12_t</t>
+  </si>
+  <si>
     <t>p1175_15_t</t>
-  </si>
-  <si>
-    <t>p1175_01_t</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1327293750940619</v>
+        <v>0.13136359899534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.0671941467536946</v>
+        <v>0.06725627675261768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06204668159022025</v>
+        <v>0.06197441410014969</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04833441057318463</v>
+        <v>0.04978546002483888</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03072016523676893</v>
+        <v>0.03099640152507109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.02966782852720165</v>
+        <v>0.02969006481840066</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02769363181622485</v>
+        <v>0.02695318487319301</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02671277954542101</v>
+        <v>0.02656442763524053</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02394422123026428</v>
+        <v>0.02409979987500696</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.02286952879873781</v>
+        <v>0.02332927915362329</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02278398059579327</v>
+        <v>0.02272594430870624</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.02273296809148602</v>
+        <v>0.02231150887041387</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02177770866676102</v>
+        <v>0.02188031153996225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02013804723478443</v>
+        <v>0.02026833400873756</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.01858367673532974</v>
+        <v>0.01892398866162009</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01851979353363541</v>
+        <v>0.01851537735491125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01715593596705803</v>
+        <v>0.01632515896073423</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01598496898651466</v>
+        <v>0.0158579028870102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01567894972248185</v>
+        <v>0.01499858895344417</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01418467697938079</v>
+        <v>0.01421847389076058</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01357383588096104</v>
+        <v>0.01384349663188639</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01340252413830363</v>
+        <v>0.01357592497488718</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.01271196418495706</v>
+        <v>0.01272028812392537</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.01169374894161835</v>
+        <v>0.01174824497012216</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.01094813516978203</v>
+        <v>0.01100442564814214</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01083400209315015</v>
+        <v>0.0104003015581757</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.008962530289722586</v>
+        <v>0.009141991036124428</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.00894652518205746</v>
+        <v>0.008922472144942762</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.00864477832073408</v>
+        <v>0.008528116105884347</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.008496340881863892</v>
+        <v>0.00837259907969962</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.008013658830805369</v>
+        <v>0.007987105367464456</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.007492764038519974</v>
+        <v>0.007472359024998726</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.006857984165208872</v>
+        <v>0.006854774350736063</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.006589160208076364</v>
+        <v>0.006437707492765951</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.006483718952919712</v>
+        <v>0.006263355651770987</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.006157126771959243</v>
+        <v>0.006249757791590707</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.006086931473293346</v>
+        <v>0.006237640144517155</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.006022916171163987</v>
+        <v>0.006219143661303561</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.005860566024008968</v>
+        <v>0.006182894973497043</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.005849147558356661</v>
+        <v>0.006078579105252068</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.005691529599948444</v>
+        <v>0.005733875376118466</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.005499559545538763</v>
+        <v>0.005579035954134144</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.005163652559175823</v>
+        <v>0.005116700876499228</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004700887237204391</v>
+        <v>0.004761313575410573</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.004667854086553503</v>
+        <v>0.00465794154880688</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004450456554601577</v>
+        <v>0.004337384475885706</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004338394984105308</v>
+        <v>0.004316777795282041</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.004111079383021392</v>
+        <v>0.004032494610804498</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.00405434677008365</v>
+        <v>0.003957571716558255</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.003880574610301893</v>
+        <v>0.003950205063584477</v>
       </c>
     </row>
   </sheetData>
